--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gpc3-Igf1r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gpc3-Igf1r.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.465847333333333</v>
+        <v>2.111846333333333</v>
       </c>
       <c r="H2">
-        <v>4.397542</v>
+        <v>6.335539</v>
       </c>
       <c r="I2">
-        <v>0.0219775736133859</v>
+        <v>0.01909882549924913</v>
       </c>
       <c r="J2">
-        <v>0.0219775736133859</v>
+        <v>0.01909882549924913</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.561928</v>
+        <v>15.03663066666667</v>
       </c>
       <c r="N2">
-        <v>43.685784</v>
+        <v>45.109892</v>
       </c>
       <c r="O2">
-        <v>0.3501777048818433</v>
+        <v>0.279146411176606</v>
       </c>
       <c r="P2">
-        <v>0.3501777048818432</v>
+        <v>0.279146411176606</v>
       </c>
       <c r="Q2">
-        <v>21.345563326992</v>
+        <v>31.75505333908756</v>
       </c>
       <c r="R2">
-        <v>192.110069942928</v>
+        <v>285.795480051788</v>
       </c>
       <c r="S2">
-        <v>0.007696056286807236</v>
+        <v>0.005331368595803647</v>
       </c>
       <c r="T2">
-        <v>0.007696056286807235</v>
+        <v>0.005331368595803646</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.465847333333333</v>
+        <v>2.111846333333333</v>
       </c>
       <c r="H3">
-        <v>4.397542</v>
+        <v>6.335539</v>
       </c>
       <c r="I3">
-        <v>0.0219775736133859</v>
+        <v>0.01909882549924913</v>
       </c>
       <c r="J3">
-        <v>0.0219775736133859</v>
+        <v>0.01909882549924913</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>43.200472</v>
       </c>
       <c r="O3">
-        <v>0.3462875276490937</v>
+        <v>0.2673306493381863</v>
       </c>
       <c r="P3">
-        <v>0.3462875276490937</v>
+        <v>0.2673306493381863</v>
       </c>
       <c r="Q3">
-        <v>21.10843222664711</v>
+        <v>30.41091946382311</v>
       </c>
       <c r="R3">
-        <v>189.975890039824</v>
+        <v>273.698275174408</v>
       </c>
       <c r="S3">
-        <v>0.007610559630305364</v>
+        <v>0.005105701422310981</v>
       </c>
       <c r="T3">
-        <v>0.007610559630305364</v>
+        <v>0.005105701422310981</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.465847333333333</v>
+        <v>2.111846333333333</v>
       </c>
       <c r="H4">
-        <v>4.397542</v>
+        <v>6.335539</v>
       </c>
       <c r="I4">
-        <v>0.0219775736133859</v>
+        <v>0.01909882549924913</v>
       </c>
       <c r="J4">
-        <v>0.0219775736133859</v>
+        <v>0.01909882549924913</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.735567333333334</v>
+        <v>22.16851266666667</v>
       </c>
       <c r="N4">
-        <v>29.206702</v>
+        <v>66.505538</v>
       </c>
       <c r="O4">
-        <v>0.2341158824922987</v>
+        <v>0.411545703901694</v>
       </c>
       <c r="P4">
-        <v>0.2341158824922987</v>
+        <v>0.411545703901694</v>
       </c>
       <c r="Q4">
-        <v>14.27085541405378</v>
+        <v>46.81649219055356</v>
       </c>
       <c r="R4">
-        <v>128.437698726484</v>
+        <v>421.348429714982</v>
       </c>
       <c r="S4">
-        <v>0.005145299041537299</v>
+        <v>0.007860039583784109</v>
       </c>
       <c r="T4">
-        <v>0.005145299041537299</v>
+        <v>0.007860039583784107</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.465847333333333</v>
+        <v>2.111846333333333</v>
       </c>
       <c r="H5">
-        <v>4.397542</v>
+        <v>6.335539</v>
       </c>
       <c r="I5">
-        <v>0.0219775736133859</v>
+        <v>0.01909882549924913</v>
       </c>
       <c r="J5">
-        <v>0.0219775736133859</v>
+        <v>0.01909882549924913</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.886742333333334</v>
+        <v>2.261165333333333</v>
       </c>
       <c r="N5">
-        <v>8.660227000000001</v>
+        <v>6.783496</v>
       </c>
       <c r="O5">
-        <v>0.06941888497676434</v>
+        <v>0.04197723558351375</v>
       </c>
       <c r="P5">
-        <v>0.06941888497676432</v>
+        <v>0.04197723558351374</v>
       </c>
       <c r="Q5">
-        <v>4.231523551337111</v>
+        <v>4.775233718260444</v>
       </c>
       <c r="R5">
-        <v>38.083711962034</v>
+        <v>42.977103464344</v>
       </c>
       <c r="S5">
-        <v>0.001525658654736007</v>
+        <v>0.0008017158973504005</v>
       </c>
       <c r="T5">
-        <v>0.001525658654736007</v>
+        <v>0.0008017158973504003</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>51.92481233333334</v>
+        <v>51.92481233333333</v>
       </c>
       <c r="H6">
         <v>155.774437</v>
       </c>
       <c r="I6">
-        <v>0.7785131230699434</v>
+        <v>0.4695904783329055</v>
       </c>
       <c r="J6">
-        <v>0.7785131230699435</v>
+        <v>0.4695904783329055</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.561928</v>
+        <v>15.03663066666667</v>
       </c>
       <c r="N6">
-        <v>43.685784</v>
+        <v>45.109892</v>
       </c>
       <c r="O6">
-        <v>0.3501777048818433</v>
+        <v>0.279146411176606</v>
       </c>
       <c r="P6">
-        <v>0.3501777048818432</v>
+        <v>0.279146411176606</v>
       </c>
       <c r="Q6">
-        <v>756.125378611512</v>
+        <v>780.7742254923115</v>
       </c>
       <c r="R6">
-        <v>6805.128407503608</v>
+        <v>7026.968029430804</v>
       </c>
       <c r="S6">
-        <v>0.2726179386570288</v>
+        <v>0.1310844967493363</v>
       </c>
       <c r="T6">
-        <v>0.2726179386570288</v>
+        <v>0.1310844967493363</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>51.92481233333334</v>
+        <v>51.92481233333333</v>
       </c>
       <c r="H7">
         <v>155.774437</v>
       </c>
       <c r="I7">
-        <v>0.7785131230699434</v>
+        <v>0.4695904783329055</v>
       </c>
       <c r="J7">
-        <v>0.7785131230699435</v>
+        <v>0.4695904783329055</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>43.200472</v>
       </c>
       <c r="O7">
-        <v>0.3462875276490937</v>
+        <v>0.2673306493381863</v>
       </c>
       <c r="P7">
-        <v>0.3462875276490937</v>
+        <v>0.2673306493381863</v>
       </c>
       <c r="Q7">
-        <v>747.7254671038072</v>
+        <v>747.7254671038071</v>
       </c>
       <c r="R7">
-        <v>6729.529203934265</v>
+        <v>6729.529203934264</v>
       </c>
       <c r="S7">
-        <v>0.2695893846302653</v>
+        <v>0.1255359274957651</v>
       </c>
       <c r="T7">
-        <v>0.2695893846302653</v>
+        <v>0.1255359274957651</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>51.92481233333334</v>
+        <v>51.92481233333333</v>
       </c>
       <c r="H8">
         <v>155.774437</v>
       </c>
       <c r="I8">
-        <v>0.7785131230699434</v>
+        <v>0.4695904783329055</v>
       </c>
       <c r="J8">
-        <v>0.7785131230699435</v>
+        <v>0.4695904783329055</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.735567333333334</v>
+        <v>22.16851266666667</v>
       </c>
       <c r="N8">
-        <v>29.206702</v>
+        <v>66.505538</v>
       </c>
       <c r="O8">
-        <v>0.2341158824922987</v>
+        <v>0.411545703901694</v>
       </c>
       <c r="P8">
-        <v>0.2341158824922987</v>
+        <v>0.411545703901694</v>
       </c>
       <c r="Q8">
-        <v>505.5175067418638</v>
+        <v>1151.095859925789</v>
       </c>
       <c r="R8">
-        <v>4549.657560676774</v>
+        <v>10359.8627393321</v>
       </c>
       <c r="S8">
-        <v>0.1822622868393553</v>
+        <v>0.1932579439510488</v>
       </c>
       <c r="T8">
-        <v>0.1822622868393553</v>
+        <v>0.1932579439510488</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>51.92481233333334</v>
+        <v>51.92481233333333</v>
       </c>
       <c r="H9">
         <v>155.774437</v>
       </c>
       <c r="I9">
-        <v>0.7785131230699434</v>
+        <v>0.4695904783329055</v>
       </c>
       <c r="J9">
-        <v>0.7785131230699435</v>
+        <v>0.4695904783329055</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.886742333333334</v>
+        <v>2.261165333333333</v>
       </c>
       <c r="N9">
-        <v>8.660227000000001</v>
+        <v>6.783496</v>
       </c>
       <c r="O9">
-        <v>0.06941888497676434</v>
+        <v>0.04197723558351375</v>
       </c>
       <c r="P9">
-        <v>0.06941888497676432</v>
+        <v>0.04197723558351374</v>
       </c>
       <c r="Q9">
-        <v>149.8935539130221</v>
+        <v>117.4105855879724</v>
       </c>
       <c r="R9">
-        <v>1349.041985217199</v>
+        <v>1056.695270291752</v>
       </c>
       <c r="S9">
-        <v>0.05404351294329397</v>
+        <v>0.01971211013675528</v>
       </c>
       <c r="T9">
-        <v>0.05404351294329397</v>
+        <v>0.01971211013675528</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.25483966666666</v>
+        <v>56.36634066666667</v>
       </c>
       <c r="H10">
-        <v>39.76451899999999</v>
+        <v>169.099022</v>
       </c>
       <c r="I10">
-        <v>0.1987309373107482</v>
+        <v>0.5097581615820991</v>
       </c>
       <c r="J10">
-        <v>0.1987309373107482</v>
+        <v>0.5097581615820991</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.561928</v>
+        <v>15.03663066666667</v>
       </c>
       <c r="N10">
-        <v>43.685784</v>
+        <v>45.109892</v>
       </c>
       <c r="O10">
-        <v>0.3501777048818433</v>
+        <v>0.279146411176606</v>
       </c>
       <c r="P10">
-        <v>0.3501777048818432</v>
+        <v>0.279146411176606</v>
       </c>
       <c r="Q10">
-        <v>193.016020877544</v>
+        <v>847.5598466361805</v>
       </c>
       <c r="R10">
-        <v>1737.144187897896</v>
+        <v>7628.038619725624</v>
       </c>
       <c r="S10">
-        <v>0.06959114351649529</v>
+        <v>0.1422971613736274</v>
       </c>
       <c r="T10">
-        <v>0.06959114351649529</v>
+        <v>0.1422971613736274</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.25483966666666</v>
+        <v>56.36634066666667</v>
       </c>
       <c r="H11">
-        <v>39.76451899999999</v>
+        <v>169.099022</v>
       </c>
       <c r="I11">
-        <v>0.1987309373107482</v>
+        <v>0.5097581615820991</v>
       </c>
       <c r="J11">
-        <v>0.1987309373107482</v>
+        <v>0.5097581615820991</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>43.200472</v>
       </c>
       <c r="O11">
-        <v>0.3462875276490937</v>
+        <v>0.2673306493381863</v>
       </c>
       <c r="P11">
-        <v>0.3462875276490937</v>
+        <v>0.2673306493381863</v>
       </c>
       <c r="Q11">
-        <v>190.8717766281075</v>
+        <v>811.684173904265</v>
       </c>
       <c r="R11">
-        <v>1717.845989652968</v>
+        <v>7305.157565138385</v>
       </c>
       <c r="S11">
-        <v>0.06881804494872602</v>
+        <v>0.1362739803411826</v>
       </c>
       <c r="T11">
-        <v>0.06881804494872604</v>
+        <v>0.1362739803411826</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.25483966666666</v>
+        <v>56.36634066666667</v>
       </c>
       <c r="H12">
-        <v>39.76451899999999</v>
+        <v>169.099022</v>
       </c>
       <c r="I12">
-        <v>0.1987309373107482</v>
+        <v>0.5097581615820991</v>
       </c>
       <c r="J12">
-        <v>0.1987309373107482</v>
+        <v>0.5097581615820991</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.735567333333334</v>
+        <v>22.16851266666667</v>
       </c>
       <c r="N12">
-        <v>29.206702</v>
+        <v>66.505538</v>
       </c>
       <c r="O12">
-        <v>0.2341158824922987</v>
+        <v>0.411545703901694</v>
       </c>
       <c r="P12">
-        <v>0.2341158824922987</v>
+        <v>0.411545703901694</v>
       </c>
       <c r="Q12">
-        <v>129.0433840673709</v>
+        <v>1249.557937042649</v>
       </c>
       <c r="R12">
-        <v>1161.390456606338</v>
+        <v>11246.02143338384</v>
       </c>
       <c r="S12">
-        <v>0.04652606876702751</v>
+        <v>0.2097887814279384</v>
       </c>
       <c r="T12">
-        <v>0.04652606876702751</v>
+        <v>0.2097887814279384</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.25483966666666</v>
+        <v>56.36634066666667</v>
       </c>
       <c r="H13">
-        <v>39.76451899999999</v>
+        <v>169.099022</v>
       </c>
       <c r="I13">
-        <v>0.1987309373107482</v>
+        <v>0.5097581615820991</v>
       </c>
       <c r="J13">
-        <v>0.1987309373107482</v>
+        <v>0.5097581615820991</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.886742333333334</v>
+        <v>2.261165333333333</v>
       </c>
       <c r="N13">
-        <v>8.660227000000001</v>
+        <v>6.783496</v>
       </c>
       <c r="O13">
-        <v>0.06941888497676434</v>
+        <v>0.04197723558351375</v>
       </c>
       <c r="P13">
-        <v>0.06941888497676432</v>
+        <v>0.04197723558351374</v>
       </c>
       <c r="Q13">
-        <v>38.26330678731255</v>
+        <v>127.4536154823235</v>
       </c>
       <c r="R13">
-        <v>344.369761085813</v>
+        <v>1147.082539340912</v>
       </c>
       <c r="S13">
-        <v>0.01379568007849939</v>
+        <v>0.02139823843935064</v>
       </c>
       <c r="T13">
-        <v>0.01379568007849939</v>
+        <v>0.02139823843935064</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.05191500000000001</v>
+        <v>0.171671</v>
       </c>
       <c r="H14">
-        <v>0.155745</v>
+        <v>0.5150129999999999</v>
       </c>
       <c r="I14">
-        <v>0.0007783660059225787</v>
+        <v>0.001552534585746342</v>
       </c>
       <c r="J14">
-        <v>0.0007783660059225787</v>
+        <v>0.001552534585746342</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.561928</v>
+        <v>15.03663066666667</v>
       </c>
       <c r="N14">
-        <v>43.685784</v>
+        <v>45.109892</v>
       </c>
       <c r="O14">
-        <v>0.3501777048818433</v>
+        <v>0.279146411176606</v>
       </c>
       <c r="P14">
-        <v>0.3501777048818432</v>
+        <v>0.279146411176606</v>
       </c>
       <c r="Q14">
-        <v>0.7559824921200001</v>
+        <v>2.581353423177333</v>
       </c>
       <c r="R14">
-        <v>6.80384242908</v>
+        <v>23.232180808596</v>
       </c>
       <c r="S14">
-        <v>0.0002725664215120158</v>
+        <v>0.0004333844578386501</v>
       </c>
       <c r="T14">
-        <v>0.0002725664215120158</v>
+        <v>0.0004333844578386501</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.05191500000000001</v>
+        <v>0.171671</v>
       </c>
       <c r="H15">
-        <v>0.155745</v>
+        <v>0.5150129999999999</v>
       </c>
       <c r="I15">
-        <v>0.0007783660059225787</v>
+        <v>0.001552534585746342</v>
       </c>
       <c r="J15">
-        <v>0.0007783660059225787</v>
+        <v>0.001552534585746342</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>43.200472</v>
       </c>
       <c r="O15">
-        <v>0.3462875276490937</v>
+        <v>0.2673306493381863</v>
       </c>
       <c r="P15">
-        <v>0.3462875276490937</v>
+        <v>0.2673306493381863</v>
       </c>
       <c r="Q15">
-        <v>0.7475841679600002</v>
+        <v>2.472089409570667</v>
       </c>
       <c r="R15">
-        <v>6.728257511640002</v>
+        <v>22.248804686136</v>
       </c>
       <c r="S15">
-        <v>0.0002695384397970296</v>
+        <v>0.0004150400789275617</v>
       </c>
       <c r="T15">
-        <v>0.0002695384397970296</v>
+        <v>0.0004150400789275617</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.05191500000000001</v>
+        <v>0.171671</v>
       </c>
       <c r="H16">
-        <v>0.155745</v>
+        <v>0.5150129999999999</v>
       </c>
       <c r="I16">
-        <v>0.0007783660059225787</v>
+        <v>0.001552534585746342</v>
       </c>
       <c r="J16">
-        <v>0.0007783660059225787</v>
+        <v>0.001552534585746342</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.735567333333334</v>
+        <v>22.16851266666667</v>
       </c>
       <c r="N16">
-        <v>29.206702</v>
+        <v>66.505538</v>
       </c>
       <c r="O16">
-        <v>0.2341158824922987</v>
+        <v>0.411545703901694</v>
       </c>
       <c r="P16">
-        <v>0.2341158824922987</v>
+        <v>0.411545703901694</v>
       </c>
       <c r="Q16">
-        <v>0.5054219781100001</v>
+        <v>3.805690737999333</v>
       </c>
       <c r="R16">
-        <v>4.54879780299</v>
+        <v>34.251216641994</v>
       </c>
       <c r="S16">
-        <v>0.0001822278443785703</v>
+        <v>0.0006389389389227033</v>
       </c>
       <c r="T16">
-        <v>0.0001822278443785703</v>
+        <v>0.0006389389389227032</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.05191500000000001</v>
+        <v>0.171671</v>
       </c>
       <c r="H17">
-        <v>0.155745</v>
+        <v>0.5150129999999999</v>
       </c>
       <c r="I17">
-        <v>0.0007783660059225787</v>
+        <v>0.001552534585746342</v>
       </c>
       <c r="J17">
-        <v>0.0007783660059225787</v>
+        <v>0.001552534585746342</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.886742333333334</v>
+        <v>2.261165333333333</v>
       </c>
       <c r="N17">
-        <v>8.660227000000001</v>
+        <v>6.783496</v>
       </c>
       <c r="O17">
-        <v>0.06941888497676434</v>
+        <v>0.04197723558351375</v>
       </c>
       <c r="P17">
-        <v>0.06941888497676432</v>
+        <v>0.04197723558351374</v>
       </c>
       <c r="Q17">
-        <v>0.149865228235</v>
+        <v>0.3881765139386666</v>
       </c>
       <c r="R17">
-        <v>1.348787054115</v>
+        <v>3.493588625448</v>
       </c>
       <c r="S17">
-        <v>5.403330023496296E-05</v>
+        <v>6.517111005742712E-05</v>
       </c>
       <c r="T17">
-        <v>5.403330023496294E-05</v>
+        <v>6.517111005742711E-05</v>
       </c>
     </row>
   </sheetData>
